--- a/TSLA/TSLA.xlsx
+++ b/TSLA/TSLA.xlsx
@@ -1,25 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/534a1defcf7f9d1a/Company Models CloudSave/TSLA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2527" documentId="11_1D8ED30D87B20E52BEB23E434571F0778683B241" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9CB8E383-7972-4498-9302-C41929ACCDF3}"/>
+  <xr:revisionPtr revIDLastSave="3025" documentId="11_1D8ED30D87B20E52BEB23E434571F0778683B241" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DBA4F0CF-85EA-4CD0-9885-C547B4432016}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="21600" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
     <sheet name="Info" sheetId="2" r:id="rId2"/>
     <sheet name="Model" sheetId="3" r:id="rId3"/>
-    <sheet name="Summary" sheetId="4" r:id="rId4"/>
-    <sheet name="Income Statement" sheetId="5" r:id="rId5"/>
-    <sheet name="Balance Sheet" sheetId="6" r:id="rId6"/>
-    <sheet name="Cash Flow" sheetId="7" r:id="rId7"/>
+    <sheet name="New Model" sheetId="8" r:id="rId4"/>
+    <sheet name="Summary" sheetId="4" r:id="rId5"/>
+    <sheet name="Income Statement" sheetId="5" r:id="rId6"/>
+    <sheet name="Balance Sheet" sheetId="6" r:id="rId7"/>
+    <sheet name="Cash Flow" sheetId="7" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -290,9 +291,10 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata">
-  <metadataTypes count="1">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="2">
     <metadataType name="XLRICHVALUE" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1"/>
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
   <futureMetadata name="XLRICHVALUE" count="1">
     <bk>
@@ -303,6 +305,20 @@
       </extLst>
     </bk>
   </futureMetadata>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="2" v="0"/>
+    </bk>
+  </cellMetadata>
   <valueMetadata count="1">
     <bk>
       <rc t="1" v="0"/>
@@ -312,7 +328,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2189" uniqueCount="1269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2243" uniqueCount="1294">
   <si>
     <t>Price</t>
   </si>
@@ -4119,18 +4135,95 @@
   </si>
   <si>
     <t>Earnings</t>
+  </si>
+  <si>
+    <t>Fiscal Period</t>
+  </si>
+  <si>
+    <t>Period Of Report</t>
+  </si>
+  <si>
+    <t>Income Statement *in millions, USD</t>
+  </si>
+  <si>
+    <t>G&amp;A</t>
+  </si>
+  <si>
+    <t>Restructuring</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Other income </t>
+  </si>
+  <si>
+    <t>Taxes (benefit)</t>
+  </si>
+  <si>
+    <t>Net Income, including non-controlling</t>
+  </si>
+  <si>
+    <t>Less: Non-controlling</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Net Income   </t>
+  </si>
+  <si>
+    <t>Mix</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Automotive Sales </t>
+  </si>
+  <si>
+    <t>Revenue by Geography *in millions, USD</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Automotive    </t>
+  </si>
+  <si>
+    <t>Growth</t>
+  </si>
+  <si>
+    <t>OpEx</t>
+  </si>
+  <si>
+    <t>Gross Margin</t>
+  </si>
+  <si>
+    <t>Tax Rate</t>
+  </si>
+  <si>
+    <t>Maturity</t>
+  </si>
+  <si>
+    <t>Discount</t>
+  </si>
+  <si>
+    <t>NPV</t>
+  </si>
+  <si>
+    <t>Forecast</t>
+  </si>
+  <si>
+    <t>Current Price</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="5">
+    <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
+    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
     <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
     <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4194,6 +4287,16 @@
       <u/>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -4342,7 +4445,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -4412,6 +4515,11 @@
     <xf numFmtId="165" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4429,8 +4537,59 @@
 </styleSheet>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>725714</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>9071</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="Straight Connector 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{74F25055-C6D2-913C-75DD-AD9DF37DD436}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14115143" y="9071"/>
+          <a:ext cx="18143" cy="14450786"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4553,40 +4712,37 @@
     <v>3</v>
     <v>Finance</v>
     <v>4</v>
-    <v>301.29000000000002</v>
-    <v>101.81</v>
-    <v>2.0775999999999999</v>
-    <v>-10.82</v>
-    <v>5.3089999999999995E-4</v>
-    <v>-4.2314999999999998E-2</v>
-    <v>0.13</v>
+    <v>278.98</v>
+    <v>138.80250000000001</v>
+    <v>2.3079000000000001</v>
+    <v>-0.45</v>
+    <v>-2.0430000000000001E-3</v>
     <v>USD</v>
-    <v>Tesla, Inc. designs, develops, manufactures, sells and leases fully electric vehicles and energy generation and storage systems, and offer services related to its products. The Company's automotive segment includes the design, development, manufacturing, sales, and leasing of electric vehicles as well as sales of automotive regulatory credits. Additionally, the automotive segment is also comprised of services and other, which includes non-warranty after-sales vehicle services, sales of used vehicles, retail merchandise, sales by its acquired subsidiaries to third party customers, and vehicle insurance. Its energy generation and storage segment include the design, manufacture, installation, sales and leasing of solar energy generation and energy storage products and related services and sales of solar energy systems incentives. Its automotive products include Model 3, Model Y, Model S and Model X. Powerwall and Megapack are its lithium-ion battery energy storage products.</v>
-    <v>127855</v>
+    <v>Tesla, Inc. designs, develops, manufactures, sells and leases high-performance fully electric vehicles and energy generation and storage systems, and offers services related to its products. The Company's segments include automotive, and energy generation and storage. The automotive segment includes the design, development, manufacturing, sales and leasing of high-performance fully electric vehicles, and sales of automotive regulatory credits. It also includes sales of used vehicles, non-warranty after-sales vehicle services, body shop and parts, paid supercharging, vehicle insurance and retail merchandise. Its consumer vehicles include the Model 3, Y, S, X and Cybertruck. The energy generation and storage segment includes the design, manufacture, installation, sales and leasing of solar energy generation and energy storage products and related services and sales of solar energy systems incentives. Its lithium-ion battery energy storage products include Powerwall and Megapack.</v>
+    <v>140473</v>
     <v>Nasdaq Stock Market</v>
     <v>XNAS</v>
     <v>XNAS</v>
     <v>1 Tesla Road, AUSTIN, TX, 78725 US</v>
-    <v>257.78879999999998</v>
+    <v>222.2799</v>
     <v>Automobiles &amp; Auto Parts</v>
     <v>Stock</v>
-    <v>45191.881362441403</v>
+    <v>45499.99996020781</v>
     <v>0</v>
-    <v>244.48</v>
-    <v>777247650720</v>
+    <v>215.33</v>
+    <v>700985300000</v>
     <v>TESLA, INC.</v>
     <v>TESLA, INC.</v>
-    <v>257.39999999999998</v>
-    <v>72.587400000000002</v>
-    <v>255.7</v>
-    <v>244.88</v>
-    <v>245.01</v>
-    <v>3173994000</v>
+    <v>221.19</v>
+    <v>61.7864</v>
+    <v>220.25</v>
+    <v>219.8</v>
+    <v>3189196000</v>
     <v>TSLA</v>
     <v>TESLA, INC. (XNAS:TSLA)</v>
-    <v>126691890</v>
-    <v>121105397</v>
-    <v>2003</v>
+    <v>600538</v>
+    <v>122531892</v>
+    <v>2024</v>
   </rv>
   <rv s="2">
     <v>1</v>
@@ -4616,9 +4772,7 @@
     <k n="52 week low"/>
     <k n="Beta"/>
     <k n="Change"/>
-    <k n="Change % (Extended hours)"/>
     <k n="Change (%)"/>
-    <k n="Change (Extended hours)"/>
     <k n="Currency" t="s"/>
     <k n="Description" t="s"/>
     <k n="Employees"/>
@@ -4639,7 +4793,6 @@
     <k n="P/E"/>
     <k n="Previous close"/>
     <k n="Price"/>
-    <k n="Price (Extended hours)"/>
     <k n="Shares outstanding"/>
     <k n="Ticker symbol" t="s"/>
     <k n="UniqueName" t="s"/>
@@ -4656,7 +4809,7 @@
 <file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
 <supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
   <spbArrays count="1">
-    <a count="45">
+    <a count="42">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
       <v t="s">%IsRefreshable</v>
@@ -4667,16 +4820,13 @@
       <v t="s">Name</v>
       <v t="s">_SubLabel</v>
       <v t="s">Price</v>
-      <v t="s">Price (Extended hours)</v>
       <v t="s">Exchange</v>
       <v t="s">Official name</v>
       <v t="s">Last trade time</v>
       <v t="s">Ticker symbol</v>
       <v t="s">Exchange abbreviation</v>
       <v t="s">Change</v>
-      <v t="s">Change (Extended hours)</v>
       <v t="s">Change (%)</v>
-      <v t="s">Change % (Extended hours)</v>
       <v t="s">Currency</v>
       <v t="s">Previous close</v>
       <v t="s">Open</v>
@@ -4742,19 +4892,13 @@
       <v>8</v>
       <v>9</v>
       <v>4</v>
-      <v>1</v>
-      <v>1</v>
-      <v>5</v>
     </spb>
     <spb s="4">
-      <v>at close</v>
+      <v>Real-Time Nasdaq Last Sale</v>
       <v>from previous close</v>
       <v>from previous close</v>
       <v>Source: Nasdaq Last Sale</v>
       <v>GMT</v>
-      <v>Real-Time Nasdaq Last Sale</v>
-      <v>from close</v>
-      <v>from close</v>
     </spb>
   </spbData>
 </supportingPropertyBags>
@@ -4799,9 +4943,6 @@
     <k n="Year incorporated" t="i"/>
     <k n="`%EntityServiceId" t="i"/>
     <k n="Shares outstanding" t="i"/>
-    <k n="Price (Extended hours)" t="i"/>
-    <k n="Change (Extended hours)" t="i"/>
-    <k n="Change % (Extended hours)" t="i"/>
   </s>
   <s>
     <k n="Price" t="s"/>
@@ -4809,9 +4950,6 @@
     <k n="Change (%)" t="s"/>
     <k n="ExchangeID" t="s"/>
     <k n="Last trade time" t="s"/>
-    <k n="Price (Extended hours)" t="s"/>
-    <k n="Change (Extended hours)" t="s"/>
-    <k n="Change % (Extended hours)" t="s"/>
   </s>
 </spbStructures>
 </file>
@@ -5181,7 +5319,7 @@
       </c>
       <c r="B2" s="6">
         <f t="array" ref="B2">_FV(A1,"Price")</f>
-        <v>244.88</v>
+        <v>219.8</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
@@ -5190,7 +5328,7 @@
       </c>
       <c r="B3" s="7">
         <f t="array" ref="B3">_FV(A1,"Shares outstanding",TRUE)/1000000</f>
-        <v>3173.9940000000001</v>
+        <v>3189.1959999999999</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
@@ -5199,7 +5337,7 @@
       </c>
       <c r="B4" s="6">
         <f>B2*B3</f>
-        <v>777247.65072000003</v>
+        <v>700985.28080000007</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
@@ -5227,7 +5365,7 @@
       </c>
       <c r="B7" s="6">
         <f>B4-B5+B6</f>
-        <v>756503.65072000003</v>
+        <v>680241.28080000007</v>
       </c>
       <c r="C7" s="11">
         <v>45187</v>
@@ -5408,8 +5546,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:BY137"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane xSplit="2" ySplit="7" topLeftCell="W47" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <pane xSplit="2" ySplit="7" topLeftCell="W8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
       <selection pane="bottomRight" activeCell="CH121" sqref="CH121"/>
@@ -23688,6 +23826,3054 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48B65505-1048-4290-906C-3B53965C8491}">
+  <dimension ref="B1:CX70"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="2" ySplit="5" topLeftCell="Q21" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
+      <selection pane="bottomRight" activeCell="AF57" sqref="AF57"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.6328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="2:102" x14ac:dyDescent="0.35">
+      <c r="B1" t="s">
+        <v>1269</v>
+      </c>
+      <c r="K1">
+        <f>L1-1</f>
+        <v>2015</v>
+      </c>
+      <c r="L1">
+        <f t="shared" ref="L1:Q1" si="0">M1-1</f>
+        <v>2016</v>
+      </c>
+      <c r="M1">
+        <f t="shared" si="0"/>
+        <v>2017</v>
+      </c>
+      <c r="N1">
+        <f t="shared" si="0"/>
+        <v>2018</v>
+      </c>
+      <c r="O1">
+        <f t="shared" si="0"/>
+        <v>2019</v>
+      </c>
+      <c r="P1">
+        <f t="shared" si="0"/>
+        <v>2020</v>
+      </c>
+      <c r="Q1">
+        <f t="shared" si="0"/>
+        <v>2021</v>
+      </c>
+      <c r="R1">
+        <f>S1-1</f>
+        <v>2022</v>
+      </c>
+      <c r="S1">
+        <v>2023</v>
+      </c>
+      <c r="T1">
+        <f>S1+1</f>
+        <v>2024</v>
+      </c>
+      <c r="U1">
+        <f t="shared" ref="U1:CF1" si="1">T1+1</f>
+        <v>2025</v>
+      </c>
+      <c r="V1">
+        <f t="shared" si="1"/>
+        <v>2026</v>
+      </c>
+      <c r="W1">
+        <f t="shared" si="1"/>
+        <v>2027</v>
+      </c>
+      <c r="X1">
+        <f t="shared" si="1"/>
+        <v>2028</v>
+      </c>
+      <c r="Y1">
+        <f t="shared" si="1"/>
+        <v>2029</v>
+      </c>
+      <c r="Z1">
+        <f t="shared" si="1"/>
+        <v>2030</v>
+      </c>
+      <c r="AA1">
+        <f t="shared" si="1"/>
+        <v>2031</v>
+      </c>
+      <c r="AB1">
+        <f t="shared" si="1"/>
+        <v>2032</v>
+      </c>
+      <c r="AC1">
+        <f t="shared" si="1"/>
+        <v>2033</v>
+      </c>
+      <c r="AD1">
+        <f t="shared" si="1"/>
+        <v>2034</v>
+      </c>
+      <c r="AE1">
+        <f t="shared" si="1"/>
+        <v>2035</v>
+      </c>
+      <c r="AF1">
+        <f t="shared" si="1"/>
+        <v>2036</v>
+      </c>
+      <c r="AG1">
+        <f t="shared" si="1"/>
+        <v>2037</v>
+      </c>
+      <c r="AH1">
+        <f t="shared" si="1"/>
+        <v>2038</v>
+      </c>
+      <c r="AI1">
+        <f t="shared" si="1"/>
+        <v>2039</v>
+      </c>
+      <c r="AJ1">
+        <f t="shared" si="1"/>
+        <v>2040</v>
+      </c>
+      <c r="AK1">
+        <f t="shared" si="1"/>
+        <v>2041</v>
+      </c>
+      <c r="AL1">
+        <f t="shared" si="1"/>
+        <v>2042</v>
+      </c>
+      <c r="AM1">
+        <f t="shared" si="1"/>
+        <v>2043</v>
+      </c>
+      <c r="AN1">
+        <f t="shared" si="1"/>
+        <v>2044</v>
+      </c>
+      <c r="AO1">
+        <f t="shared" si="1"/>
+        <v>2045</v>
+      </c>
+      <c r="AP1">
+        <f t="shared" si="1"/>
+        <v>2046</v>
+      </c>
+      <c r="AQ1">
+        <f t="shared" si="1"/>
+        <v>2047</v>
+      </c>
+      <c r="AR1">
+        <f t="shared" si="1"/>
+        <v>2048</v>
+      </c>
+      <c r="AS1">
+        <f t="shared" si="1"/>
+        <v>2049</v>
+      </c>
+      <c r="AT1">
+        <f t="shared" si="1"/>
+        <v>2050</v>
+      </c>
+      <c r="AU1">
+        <f t="shared" si="1"/>
+        <v>2051</v>
+      </c>
+      <c r="AV1">
+        <f t="shared" si="1"/>
+        <v>2052</v>
+      </c>
+      <c r="AW1">
+        <f t="shared" si="1"/>
+        <v>2053</v>
+      </c>
+      <c r="AX1">
+        <f t="shared" si="1"/>
+        <v>2054</v>
+      </c>
+      <c r="AY1">
+        <f t="shared" si="1"/>
+        <v>2055</v>
+      </c>
+      <c r="AZ1">
+        <f t="shared" si="1"/>
+        <v>2056</v>
+      </c>
+      <c r="BA1">
+        <f t="shared" si="1"/>
+        <v>2057</v>
+      </c>
+      <c r="BB1">
+        <f t="shared" si="1"/>
+        <v>2058</v>
+      </c>
+      <c r="BC1">
+        <f t="shared" si="1"/>
+        <v>2059</v>
+      </c>
+      <c r="BD1">
+        <f t="shared" si="1"/>
+        <v>2060</v>
+      </c>
+      <c r="BE1">
+        <f t="shared" si="1"/>
+        <v>2061</v>
+      </c>
+      <c r="BF1">
+        <f t="shared" si="1"/>
+        <v>2062</v>
+      </c>
+      <c r="BG1">
+        <f t="shared" si="1"/>
+        <v>2063</v>
+      </c>
+      <c r="BH1">
+        <f t="shared" si="1"/>
+        <v>2064</v>
+      </c>
+      <c r="BI1">
+        <f t="shared" si="1"/>
+        <v>2065</v>
+      </c>
+      <c r="BJ1">
+        <f t="shared" si="1"/>
+        <v>2066</v>
+      </c>
+      <c r="BK1">
+        <f t="shared" si="1"/>
+        <v>2067</v>
+      </c>
+      <c r="BL1">
+        <f t="shared" si="1"/>
+        <v>2068</v>
+      </c>
+      <c r="BM1">
+        <f t="shared" si="1"/>
+        <v>2069</v>
+      </c>
+      <c r="BN1">
+        <f t="shared" si="1"/>
+        <v>2070</v>
+      </c>
+      <c r="BO1">
+        <f t="shared" si="1"/>
+        <v>2071</v>
+      </c>
+      <c r="BP1">
+        <f t="shared" si="1"/>
+        <v>2072</v>
+      </c>
+      <c r="BQ1">
+        <f t="shared" si="1"/>
+        <v>2073</v>
+      </c>
+      <c r="BR1">
+        <f t="shared" si="1"/>
+        <v>2074</v>
+      </c>
+      <c r="BS1">
+        <f t="shared" si="1"/>
+        <v>2075</v>
+      </c>
+      <c r="BT1">
+        <f t="shared" si="1"/>
+        <v>2076</v>
+      </c>
+      <c r="BU1">
+        <f t="shared" si="1"/>
+        <v>2077</v>
+      </c>
+      <c r="BV1">
+        <f t="shared" si="1"/>
+        <v>2078</v>
+      </c>
+      <c r="BW1">
+        <f t="shared" si="1"/>
+        <v>2079</v>
+      </c>
+      <c r="BX1">
+        <f t="shared" si="1"/>
+        <v>2080</v>
+      </c>
+      <c r="BY1">
+        <f t="shared" si="1"/>
+        <v>2081</v>
+      </c>
+      <c r="BZ1">
+        <f t="shared" si="1"/>
+        <v>2082</v>
+      </c>
+      <c r="CA1">
+        <f t="shared" si="1"/>
+        <v>2083</v>
+      </c>
+      <c r="CB1">
+        <f t="shared" si="1"/>
+        <v>2084</v>
+      </c>
+      <c r="CC1">
+        <f t="shared" si="1"/>
+        <v>2085</v>
+      </c>
+      <c r="CD1">
+        <f t="shared" si="1"/>
+        <v>2086</v>
+      </c>
+      <c r="CE1">
+        <f t="shared" si="1"/>
+        <v>2087</v>
+      </c>
+      <c r="CF1">
+        <f t="shared" si="1"/>
+        <v>2088</v>
+      </c>
+      <c r="CG1">
+        <f t="shared" ref="CG1:CX1" si="2">CF1+1</f>
+        <v>2089</v>
+      </c>
+      <c r="CH1">
+        <f t="shared" si="2"/>
+        <v>2090</v>
+      </c>
+      <c r="CI1">
+        <f t="shared" si="2"/>
+        <v>2091</v>
+      </c>
+      <c r="CJ1">
+        <f t="shared" si="2"/>
+        <v>2092</v>
+      </c>
+      <c r="CK1">
+        <f t="shared" si="2"/>
+        <v>2093</v>
+      </c>
+      <c r="CL1">
+        <f t="shared" si="2"/>
+        <v>2094</v>
+      </c>
+      <c r="CM1">
+        <f t="shared" si="2"/>
+        <v>2095</v>
+      </c>
+      <c r="CN1">
+        <f t="shared" si="2"/>
+        <v>2096</v>
+      </c>
+      <c r="CO1">
+        <f t="shared" si="2"/>
+        <v>2097</v>
+      </c>
+      <c r="CP1">
+        <f t="shared" si="2"/>
+        <v>2098</v>
+      </c>
+      <c r="CQ1">
+        <f t="shared" si="2"/>
+        <v>2099</v>
+      </c>
+      <c r="CR1">
+        <f t="shared" si="2"/>
+        <v>2100</v>
+      </c>
+      <c r="CS1">
+        <f t="shared" si="2"/>
+        <v>2101</v>
+      </c>
+      <c r="CT1">
+        <f t="shared" si="2"/>
+        <v>2102</v>
+      </c>
+      <c r="CU1">
+        <f t="shared" si="2"/>
+        <v>2103</v>
+      </c>
+      <c r="CV1">
+        <f t="shared" si="2"/>
+        <v>2104</v>
+      </c>
+      <c r="CW1">
+        <f t="shared" si="2"/>
+        <v>2105</v>
+      </c>
+      <c r="CX1">
+        <f t="shared" si="2"/>
+        <v>2106</v>
+      </c>
+    </row>
+    <row r="2" spans="2:102" x14ac:dyDescent="0.35">
+      <c r="B2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K2" s="11">
+        <v>42424</v>
+      </c>
+      <c r="L2" s="11">
+        <v>42795</v>
+      </c>
+      <c r="M2" s="11">
+        <v>43154</v>
+      </c>
+      <c r="N2" s="11">
+        <v>43515</v>
+      </c>
+      <c r="O2" s="11">
+        <v>43874</v>
+      </c>
+      <c r="P2" s="11">
+        <v>44235</v>
+      </c>
+      <c r="Q2" s="11">
+        <v>44599</v>
+      </c>
+      <c r="R2" s="11">
+        <v>44957</v>
+      </c>
+      <c r="S2" s="11">
+        <v>45320</v>
+      </c>
+    </row>
+    <row r="3" spans="2:102" x14ac:dyDescent="0.35">
+      <c r="B3" t="s">
+        <v>1270</v>
+      </c>
+      <c r="K3" s="11">
+        <f>DATE(YEAR(L3)-1, MONTH(L3), DAY(L3))</f>
+        <v>42369</v>
+      </c>
+      <c r="L3" s="11">
+        <f>DATE(YEAR(M3)-1, MONTH(M3), DAY(M3))</f>
+        <v>42735</v>
+      </c>
+      <c r="M3" s="11">
+        <f>DATE(YEAR(N3)-1, MONTH(N3), DAY(N3))</f>
+        <v>43100</v>
+      </c>
+      <c r="N3" s="11">
+        <f>DATE(YEAR(O3)-1, MONTH(O3), DAY(O3))</f>
+        <v>43465</v>
+      </c>
+      <c r="O3" s="11">
+        <f>DATE(YEAR(P3)-1, MONTH(P3), DAY(P3))</f>
+        <v>43830</v>
+      </c>
+      <c r="P3" s="11">
+        <f>DATE(YEAR(Q3)-1, MONTH(Q3), DAY(Q3))</f>
+        <v>44196</v>
+      </c>
+      <c r="Q3" s="11">
+        <f>DATE(YEAR(R3)-1, MONTH(R3), DAY(R3))</f>
+        <v>44561</v>
+      </c>
+      <c r="R3" s="11">
+        <f>DATE(YEAR(S3)-1, MONTH(S3), DAY(S3))</f>
+        <v>44926</v>
+      </c>
+      <c r="S3" s="11">
+        <v>45291</v>
+      </c>
+    </row>
+    <row r="7" spans="2:102" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B7" s="12" t="s">
+        <v>1283</v>
+      </c>
+    </row>
+    <row r="8" spans="2:102" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="N8" s="7">
+        <v>19906</v>
+      </c>
+      <c r="O8" s="7">
+        <v>23047</v>
+      </c>
+      <c r="P8" s="7">
+        <v>29542</v>
+      </c>
+      <c r="Q8" s="7">
+        <v>51034</v>
+      </c>
+      <c r="R8" s="7">
+        <v>77553</v>
+      </c>
+      <c r="S8" s="7">
+        <v>90738</v>
+      </c>
+    </row>
+    <row r="9" spans="2:102" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B9" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="N9" s="7">
+        <v>3852</v>
+      </c>
+      <c r="O9" s="7">
+        <v>3879</v>
+      </c>
+      <c r="P9" s="7">
+        <v>6612</v>
+      </c>
+      <c r="Q9" s="7">
+        <v>13735</v>
+      </c>
+      <c r="R9" s="7">
+        <v>20565</v>
+      </c>
+      <c r="S9" s="7">
+        <v>16519</v>
+      </c>
+    </row>
+    <row r="10" spans="2:102" s="66" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B10" s="66" t="s">
+        <v>29</v>
+      </c>
+      <c r="G10" s="66" t="e">
+        <f>G9/G8</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H10" s="66" t="e">
+        <f t="shared" ref="H10:P10" si="3">H9/H8</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I10" s="66" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J10" s="66" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K10" s="66" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L10" s="66" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M10" s="66" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N10" s="66">
+        <f t="shared" si="3"/>
+        <v>0.19350949462473627</v>
+      </c>
+      <c r="O10" s="66">
+        <f t="shared" si="3"/>
+        <v>0.16830823968412376</v>
+      </c>
+      <c r="P10" s="66">
+        <f t="shared" si="3"/>
+        <v>0.22381693859589738</v>
+      </c>
+      <c r="Q10" s="66">
+        <f>Q9/Q8</f>
+        <v>0.26913430262178156</v>
+      </c>
+      <c r="R10" s="66">
+        <f>R9/R8</f>
+        <v>0.26517349425554138</v>
+      </c>
+      <c r="S10" s="66">
+        <f>S9/S8</f>
+        <v>0.1820516211510062</v>
+      </c>
+    </row>
+    <row r="11" spans="2:102" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B11" s="12" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="2:102" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B12" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="N12" s="7">
+        <v>1555</v>
+      </c>
+      <c r="O12" s="7">
+        <v>1531</v>
+      </c>
+      <c r="P12" s="7">
+        <v>1994</v>
+      </c>
+      <c r="Q12" s="7">
+        <v>2789</v>
+      </c>
+      <c r="R12" s="7">
+        <v>3909</v>
+      </c>
+      <c r="S12" s="7">
+        <v>6035</v>
+      </c>
+    </row>
+    <row r="13" spans="2:102" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B13" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="N13" s="7">
+        <v>190</v>
+      </c>
+      <c r="O13" s="7">
+        <v>190</v>
+      </c>
+      <c r="P13" s="7">
+        <v>18</v>
+      </c>
+      <c r="Q13" s="7">
+        <v>-129</v>
+      </c>
+      <c r="R13" s="7">
+        <v>288</v>
+      </c>
+      <c r="S13" s="7">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="14" spans="2:102" s="66" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="66" t="s">
+        <v>29</v>
+      </c>
+      <c r="G14" s="66" t="e">
+        <f>G13/G12</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H14" s="66" t="e">
+        <f t="shared" ref="H14:P14" si="4">H13/H12</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I14" s="66" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J14" s="66" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K14" s="66" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L14" s="66" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M14" s="66" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N14" s="66">
+        <f t="shared" si="4"/>
+        <v>0.12218649517684887</v>
+      </c>
+      <c r="O14" s="66">
+        <f t="shared" si="4"/>
+        <v>0.12410189418680601</v>
+      </c>
+      <c r="P14" s="66">
+        <f t="shared" si="4"/>
+        <v>9.0270812437311942E-3</v>
+      </c>
+      <c r="Q14" s="66">
+        <f>Q13/Q12</f>
+        <v>-4.6253137325206167E-2</v>
+      </c>
+      <c r="R14" s="66">
+        <f>R13/R12</f>
+        <v>7.3676132003069841E-2</v>
+      </c>
+      <c r="S14" s="66">
+        <f>S13/S12</f>
+        <v>0.18906379453189726</v>
+      </c>
+    </row>
+    <row r="15" spans="2:102" x14ac:dyDescent="0.35">
+      <c r="B15" s="65" t="s">
+        <v>1279</v>
+      </c>
+    </row>
+    <row r="16" spans="2:102" s="66" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B16" s="66" t="s">
+        <v>1280</v>
+      </c>
+      <c r="G16" s="66" t="e">
+        <f>G8/G27</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H16" s="66" t="e">
+        <f>H8/H27</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I16" s="66" t="e">
+        <f>I8/I27</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J16" s="66" t="e">
+        <f>J8/J27</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K16" s="66">
+        <f>K8/K27</f>
+        <v>0</v>
+      </c>
+      <c r="L16" s="66">
+        <f>L8/L27</f>
+        <v>0</v>
+      </c>
+      <c r="M16" s="66">
+        <f>M8/M27</f>
+        <v>0</v>
+      </c>
+      <c r="N16" s="66">
+        <f>N8/N27</f>
+        <v>0.92754298494944321</v>
+      </c>
+      <c r="O16" s="66">
+        <f>O8/O27</f>
+        <v>0.93770851981446823</v>
+      </c>
+      <c r="P16" s="66">
+        <f>P8/P27</f>
+        <v>0.93677067478437337</v>
+      </c>
+      <c r="Q16" s="66">
+        <f>Q8/Q27</f>
+        <v>0.94818200397599539</v>
+      </c>
+      <c r="R16" s="66">
+        <f>R8/R27</f>
+        <v>0.95201443617883186</v>
+      </c>
+      <c r="S16" s="66">
+        <f>S8/S27</f>
+        <v>0.93763756419662514</v>
+      </c>
+    </row>
+    <row r="17" spans="2:26" s="66" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B17" s="66" t="s">
+        <v>24</v>
+      </c>
+      <c r="G17" s="66" t="e">
+        <f>G12/G27</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H17" s="66" t="e">
+        <f>H12/H27</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I17" s="66" t="e">
+        <f>I12/I27</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J17" s="66" t="e">
+        <f>J12/J27</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K17" s="66">
+        <f>K12/K27</f>
+        <v>0</v>
+      </c>
+      <c r="L17" s="66">
+        <f>L12/L27</f>
+        <v>0</v>
+      </c>
+      <c r="M17" s="66">
+        <f>M12/M27</f>
+        <v>0</v>
+      </c>
+      <c r="N17" s="66">
+        <f>N12/N27</f>
+        <v>7.2457015050556822E-2</v>
+      </c>
+      <c r="O17" s="66">
+        <f>O12/O27</f>
+        <v>6.2291480185531774E-2</v>
+      </c>
+      <c r="P17" s="66">
+        <f>P12/P27</f>
+        <v>6.3229325215626589E-2</v>
+      </c>
+      <c r="Q17" s="66">
+        <f>Q12/Q27</f>
+        <v>5.1817996024004609E-2</v>
+      </c>
+      <c r="R17" s="66">
+        <f>R12/R27</f>
+        <v>4.7985563821168149E-2</v>
+      </c>
+      <c r="S17" s="66">
+        <f>S12/S27</f>
+        <v>6.2362435803374909E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="2:26" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B19" s="12" t="s">
+        <v>1281</v>
+      </c>
+    </row>
+    <row r="20" spans="2:26" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B20" s="7" t="s">
+        <v>1235</v>
+      </c>
+      <c r="N20" s="7">
+        <v>14872</v>
+      </c>
+      <c r="O20" s="7">
+        <v>12653</v>
+      </c>
+      <c r="P20" s="7">
+        <v>15207</v>
+      </c>
+      <c r="Q20" s="7">
+        <v>23973</v>
+      </c>
+      <c r="R20" s="7">
+        <v>40553</v>
+      </c>
+      <c r="S20" s="7">
+        <v>45235</v>
+      </c>
+    </row>
+    <row r="21" spans="2:26" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B21" s="7" t="s">
+        <v>1236</v>
+      </c>
+      <c r="N21" s="7">
+        <v>1757</v>
+      </c>
+      <c r="O21" s="7">
+        <v>2979</v>
+      </c>
+      <c r="P21" s="7">
+        <v>6662</v>
+      </c>
+      <c r="Q21" s="7">
+        <v>13844</v>
+      </c>
+      <c r="R21" s="7">
+        <v>18145</v>
+      </c>
+      <c r="S21" s="7">
+        <v>24745</v>
+      </c>
+    </row>
+    <row r="22" spans="2:26" s="22" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B22" s="22" t="s">
+        <v>1237</v>
+      </c>
+      <c r="N22" s="22">
+        <v>4832</v>
+      </c>
+      <c r="O22" s="22">
+        <v>8946</v>
+      </c>
+      <c r="P22" s="22">
+        <v>9667</v>
+      </c>
+      <c r="Q22" s="22">
+        <v>16006</v>
+      </c>
+      <c r="R22" s="22">
+        <v>22764</v>
+      </c>
+      <c r="S22" s="22">
+        <v>29793</v>
+      </c>
+    </row>
+    <row r="23" spans="2:26" s="23" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B23" s="23" t="s">
+        <v>1282</v>
+      </c>
+      <c r="G23" s="23">
+        <f>SUM(G20:G22)</f>
+        <v>0</v>
+      </c>
+      <c r="H23" s="23">
+        <f>SUM(H20:H22)</f>
+        <v>0</v>
+      </c>
+      <c r="I23" s="23">
+        <f>SUM(I20:I22)</f>
+        <v>0</v>
+      </c>
+      <c r="J23" s="23">
+        <f>SUM(J20:J22)</f>
+        <v>0</v>
+      </c>
+      <c r="K23" s="23">
+        <f>SUM(K20:K22)</f>
+        <v>0</v>
+      </c>
+      <c r="L23" s="23">
+        <f>SUM(L20:L22)</f>
+        <v>0</v>
+      </c>
+      <c r="M23" s="23">
+        <f>SUM(M20:M22)</f>
+        <v>0</v>
+      </c>
+      <c r="N23" s="23">
+        <f>SUM(N20:N22)</f>
+        <v>21461</v>
+      </c>
+      <c r="O23" s="23">
+        <f>SUM(O20:O22)</f>
+        <v>24578</v>
+      </c>
+      <c r="P23" s="23">
+        <f>SUM(P20:P22)</f>
+        <v>31536</v>
+      </c>
+      <c r="Q23" s="23">
+        <f>SUM(Q20:Q22)</f>
+        <v>53823</v>
+      </c>
+      <c r="R23" s="23">
+        <f>SUM(R20:R22)</f>
+        <v>81462</v>
+      </c>
+      <c r="S23" s="23">
+        <f>SUM(S20:S22)</f>
+        <v>99773</v>
+      </c>
+    </row>
+    <row r="26" spans="2:26" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B26" s="9" t="s">
+        <v>1271</v>
+      </c>
+    </row>
+    <row r="27" spans="2:26" s="23" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B27" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="K27" s="23">
+        <v>4046.0250000000001</v>
+      </c>
+      <c r="L27" s="23">
+        <v>7000.1319999999996</v>
+      </c>
+      <c r="M27" s="23">
+        <v>11758.751</v>
+      </c>
+      <c r="N27" s="23">
+        <v>21461</v>
+      </c>
+      <c r="O27" s="23">
+        <v>24578</v>
+      </c>
+      <c r="P27" s="23">
+        <v>31536</v>
+      </c>
+      <c r="Q27" s="23">
+        <v>53823</v>
+      </c>
+      <c r="R27" s="23">
+        <v>81462</v>
+      </c>
+      <c r="S27" s="23">
+        <v>96773</v>
+      </c>
+      <c r="T27" s="23">
+        <f>S27*(1+T54)</f>
+        <v>145159.5</v>
+      </c>
+      <c r="U27" s="23">
+        <f t="shared" ref="U27:Z27" si="5">T27*(1+U54)</f>
+        <v>217739.25</v>
+      </c>
+      <c r="V27" s="23">
+        <f t="shared" si="5"/>
+        <v>326608.875</v>
+      </c>
+      <c r="W27" s="23">
+        <f t="shared" si="5"/>
+        <v>489913.3125</v>
+      </c>
+      <c r="X27" s="23">
+        <f t="shared" si="5"/>
+        <v>734869.96875</v>
+      </c>
+      <c r="Y27" s="23">
+        <f t="shared" si="5"/>
+        <v>1102304.953125</v>
+      </c>
+      <c r="Z27" s="23">
+        <f t="shared" si="5"/>
+        <v>1653457.4296875</v>
+      </c>
+    </row>
+    <row r="28" spans="2:26" s="22" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B28" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="K28" s="22">
+        <v>3122.5219999999999</v>
+      </c>
+      <c r="L28" s="22">
+        <v>5400.875</v>
+      </c>
+      <c r="M28" s="22">
+        <v>9536.2639999999992</v>
+      </c>
+      <c r="N28" s="22">
+        <v>17419</v>
+      </c>
+      <c r="O28" s="22">
+        <v>20509</v>
+      </c>
+      <c r="P28" s="22">
+        <v>24906</v>
+      </c>
+      <c r="Q28" s="22">
+        <v>40217</v>
+      </c>
+      <c r="R28" s="22">
+        <v>60609</v>
+      </c>
+      <c r="S28" s="22">
+        <v>79113</v>
+      </c>
+    </row>
+    <row r="29" spans="2:26" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B29" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G29" s="7">
+        <f>G27-G28</f>
+        <v>0</v>
+      </c>
+      <c r="H29" s="7">
+        <f t="shared" ref="H29:R29" si="6">H27-H28</f>
+        <v>0</v>
+      </c>
+      <c r="I29" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J29" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="K29" s="7">
+        <f t="shared" si="6"/>
+        <v>923.50300000000016</v>
+      </c>
+      <c r="L29" s="7">
+        <f t="shared" si="6"/>
+        <v>1599.2569999999996</v>
+      </c>
+      <c r="M29" s="7">
+        <f t="shared" si="6"/>
+        <v>2222.487000000001</v>
+      </c>
+      <c r="N29" s="7">
+        <f t="shared" si="6"/>
+        <v>4042</v>
+      </c>
+      <c r="O29" s="7">
+        <f t="shared" si="6"/>
+        <v>4069</v>
+      </c>
+      <c r="P29" s="7">
+        <f t="shared" si="6"/>
+        <v>6630</v>
+      </c>
+      <c r="Q29" s="7">
+        <f t="shared" si="6"/>
+        <v>13606</v>
+      </c>
+      <c r="R29" s="7">
+        <f t="shared" si="6"/>
+        <v>20853</v>
+      </c>
+      <c r="S29" s="7">
+        <f>S27-S28</f>
+        <v>17660</v>
+      </c>
+      <c r="T29" s="7">
+        <f>T27*T57</f>
+        <v>29031.9</v>
+      </c>
+      <c r="U29" s="7">
+        <f t="shared" ref="U29:Z29" si="7">U27*U57</f>
+        <v>43547.850000000006</v>
+      </c>
+      <c r="V29" s="7">
+        <f t="shared" si="7"/>
+        <v>65321.775000000001</v>
+      </c>
+      <c r="W29" s="7">
+        <f t="shared" si="7"/>
+        <v>122478.328125</v>
+      </c>
+      <c r="X29" s="7">
+        <f t="shared" si="7"/>
+        <v>183717.4921875</v>
+      </c>
+      <c r="Y29" s="7">
+        <f t="shared" si="7"/>
+        <v>275576.23828125</v>
+      </c>
+      <c r="Z29" s="7">
+        <f t="shared" si="7"/>
+        <v>413364.357421875</v>
+      </c>
+    </row>
+    <row r="30" spans="2:26" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B30" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="K30" s="7">
+        <v>717.9</v>
+      </c>
+      <c r="L30" s="7">
+        <v>834.40800000000002</v>
+      </c>
+      <c r="M30" s="7">
+        <v>1378.0730000000001</v>
+      </c>
+      <c r="N30" s="7">
+        <v>1460</v>
+      </c>
+      <c r="O30" s="7">
+        <v>1343</v>
+      </c>
+      <c r="P30" s="7">
+        <v>1491</v>
+      </c>
+      <c r="Q30" s="7">
+        <v>2593</v>
+      </c>
+      <c r="R30" s="7">
+        <v>3075</v>
+      </c>
+      <c r="S30" s="7">
+        <v>3969</v>
+      </c>
+      <c r="T30" s="7">
+        <f>T$27*T60</f>
+        <v>8709.57</v>
+      </c>
+      <c r="U30" s="7">
+        <f t="shared" ref="U30:Z30" si="8">U$27*U60</f>
+        <v>13064.355</v>
+      </c>
+      <c r="V30" s="7">
+        <f t="shared" si="8"/>
+        <v>19596.532499999998</v>
+      </c>
+      <c r="W30" s="7">
+        <f t="shared" si="8"/>
+        <v>29394.798749999998</v>
+      </c>
+      <c r="X30" s="7">
+        <f t="shared" si="8"/>
+        <v>44092.198124999995</v>
+      </c>
+      <c r="Y30" s="7">
+        <f t="shared" si="8"/>
+        <v>66138.297187499993</v>
+      </c>
+      <c r="Z30" s="7">
+        <f t="shared" si="8"/>
+        <v>99207.44578124999</v>
+      </c>
+    </row>
+    <row r="31" spans="2:26" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B31" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="K31" s="7">
+        <v>922.23199999999997</v>
+      </c>
+      <c r="L31" s="7">
+        <v>1432.1890000000001</v>
+      </c>
+      <c r="M31" s="7">
+        <v>2476</v>
+      </c>
+      <c r="N31" s="7">
+        <v>2835</v>
+      </c>
+      <c r="O31" s="7">
+        <v>2646</v>
+      </c>
+      <c r="P31" s="7">
+        <v>3145</v>
+      </c>
+      <c r="Q31" s="7">
+        <v>4517</v>
+      </c>
+      <c r="R31" s="7">
+        <v>3946</v>
+      </c>
+      <c r="S31" s="7">
+        <v>4800</v>
+      </c>
+      <c r="T31" s="7">
+        <f>T$27*T61</f>
+        <v>18870.735000000001</v>
+      </c>
+      <c r="U31" s="7">
+        <f t="shared" ref="U31:Z31" si="9">U$27*U61</f>
+        <v>28306.102500000001</v>
+      </c>
+      <c r="V31" s="7">
+        <f t="shared" si="9"/>
+        <v>42459.153750000005</v>
+      </c>
+      <c r="W31" s="7">
+        <f t="shared" si="9"/>
+        <v>63688.730625000004</v>
+      </c>
+      <c r="X31" s="7">
+        <f t="shared" si="9"/>
+        <v>95533.095937500009</v>
+      </c>
+      <c r="Y31" s="7">
+        <f t="shared" si="9"/>
+        <v>143299.64390625001</v>
+      </c>
+      <c r="Z31" s="7">
+        <f t="shared" si="9"/>
+        <v>214949.46585937502</v>
+      </c>
+    </row>
+    <row r="32" spans="2:26" s="22" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B32" s="22" t="s">
+        <v>1273</v>
+      </c>
+      <c r="K32" s="22">
+        <v>0</v>
+      </c>
+      <c r="L32" s="22">
+        <v>0</v>
+      </c>
+      <c r="M32" s="22">
+        <v>0</v>
+      </c>
+      <c r="N32" s="22">
+        <v>135</v>
+      </c>
+      <c r="O32" s="22">
+        <v>149</v>
+      </c>
+      <c r="P32" s="22">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="22">
+        <v>-27</v>
+      </c>
+      <c r="R32" s="22">
+        <v>176</v>
+      </c>
+      <c r="S32" s="22">
+        <v>0</v>
+      </c>
+      <c r="T32" s="7">
+        <f>T$27*T62</f>
+        <v>0</v>
+      </c>
+      <c r="U32" s="7">
+        <f t="shared" ref="U32:Z32" si="10">U$27*U62</f>
+        <v>0</v>
+      </c>
+      <c r="V32" s="7">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="W32" s="7">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="X32" s="7">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="Y32" s="7">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="Z32" s="7">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:102" s="28" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B33" s="28" t="s">
+        <v>36</v>
+      </c>
+      <c r="G33" s="28">
+        <f>SUM(G30:G32)</f>
+        <v>0</v>
+      </c>
+      <c r="H33" s="28">
+        <f t="shared" ref="H33:R33" si="11">SUM(H30:H32)</f>
+        <v>0</v>
+      </c>
+      <c r="I33" s="28">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="J33" s="28">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="K33" s="28">
+        <f t="shared" si="11"/>
+        <v>1640.1320000000001</v>
+      </c>
+      <c r="L33" s="28">
+        <f t="shared" si="11"/>
+        <v>2266.5970000000002</v>
+      </c>
+      <c r="M33" s="28">
+        <f t="shared" si="11"/>
+        <v>3854.0730000000003</v>
+      </c>
+      <c r="N33" s="28">
+        <f t="shared" si="11"/>
+        <v>4430</v>
+      </c>
+      <c r="O33" s="28">
+        <f t="shared" si="11"/>
+        <v>4138</v>
+      </c>
+      <c r="P33" s="28">
+        <f t="shared" si="11"/>
+        <v>4636</v>
+      </c>
+      <c r="Q33" s="28">
+        <f t="shared" si="11"/>
+        <v>7083</v>
+      </c>
+      <c r="R33" s="28">
+        <f t="shared" si="11"/>
+        <v>7197</v>
+      </c>
+      <c r="S33" s="28">
+        <f>SUM(S30:S32)</f>
+        <v>8769</v>
+      </c>
+      <c r="T33" s="28">
+        <f t="shared" ref="T33:Z33" si="12">SUM(T30:T32)</f>
+        <v>27580.305</v>
+      </c>
+      <c r="U33" s="28">
+        <f t="shared" si="12"/>
+        <v>41370.457500000004</v>
+      </c>
+      <c r="V33" s="28">
+        <f t="shared" si="12"/>
+        <v>62055.686249999999</v>
+      </c>
+      <c r="W33" s="28">
+        <f t="shared" si="12"/>
+        <v>93083.529374999998</v>
+      </c>
+      <c r="X33" s="28">
+        <f t="shared" si="12"/>
+        <v>139625.2940625</v>
+      </c>
+      <c r="Y33" s="28">
+        <f t="shared" si="12"/>
+        <v>209437.94109375001</v>
+      </c>
+      <c r="Z33" s="28">
+        <f t="shared" si="12"/>
+        <v>314156.91164062498</v>
+      </c>
+    </row>
+    <row r="34" spans="2:102" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B34" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="G34" s="7">
+        <f>G29-G33</f>
+        <v>0</v>
+      </c>
+      <c r="H34" s="7">
+        <f t="shared" ref="H34:R34" si="13">H29-H33</f>
+        <v>0</v>
+      </c>
+      <c r="I34" s="7">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="J34" s="7">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="K34" s="7">
+        <f t="shared" si="13"/>
+        <v>-716.62899999999991</v>
+      </c>
+      <c r="L34" s="7">
+        <f t="shared" si="13"/>
+        <v>-667.3400000000006</v>
+      </c>
+      <c r="M34" s="7">
+        <f t="shared" si="13"/>
+        <v>-1631.5859999999993</v>
+      </c>
+      <c r="N34" s="7">
+        <f t="shared" si="13"/>
+        <v>-388</v>
+      </c>
+      <c r="O34" s="7">
+        <f t="shared" si="13"/>
+        <v>-69</v>
+      </c>
+      <c r="P34" s="7">
+        <f t="shared" si="13"/>
+        <v>1994</v>
+      </c>
+      <c r="Q34" s="7">
+        <f t="shared" si="13"/>
+        <v>6523</v>
+      </c>
+      <c r="R34" s="7">
+        <f t="shared" si="13"/>
+        <v>13656</v>
+      </c>
+      <c r="S34" s="7">
+        <f>S29-S33</f>
+        <v>8891</v>
+      </c>
+      <c r="T34" s="7">
+        <f t="shared" ref="T34:Z34" si="14">T29-T33</f>
+        <v>1451.5950000000012</v>
+      </c>
+      <c r="U34" s="7">
+        <f t="shared" si="14"/>
+        <v>2177.3925000000017</v>
+      </c>
+      <c r="V34" s="7">
+        <f t="shared" si="14"/>
+        <v>3266.0887500000026</v>
+      </c>
+      <c r="W34" s="7">
+        <f t="shared" si="14"/>
+        <v>29394.798750000002</v>
+      </c>
+      <c r="X34" s="7">
+        <f t="shared" si="14"/>
+        <v>44092.198124999995</v>
+      </c>
+      <c r="Y34" s="7">
+        <f t="shared" si="14"/>
+        <v>66138.297187499993</v>
+      </c>
+      <c r="Z34" s="7">
+        <f t="shared" si="14"/>
+        <v>99207.445781250019</v>
+      </c>
+    </row>
+    <row r="35" spans="2:102" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B35" s="7" t="s">
+        <v>534</v>
+      </c>
+      <c r="K35" s="7">
+        <v>1.508</v>
+      </c>
+      <c r="L35" s="7">
+        <v>8.5299999999999994</v>
+      </c>
+      <c r="M35" s="7">
+        <v>19.686</v>
+      </c>
+      <c r="N35" s="7">
+        <v>24</v>
+      </c>
+      <c r="O35" s="7">
+        <v>44</v>
+      </c>
+      <c r="P35" s="7">
+        <v>30</v>
+      </c>
+      <c r="Q35" s="7">
+        <v>56</v>
+      </c>
+      <c r="R35" s="7">
+        <v>297</v>
+      </c>
+      <c r="S35" s="7">
+        <v>1066</v>
+      </c>
+      <c r="T35" s="7">
+        <v>0</v>
+      </c>
+      <c r="U35" s="7">
+        <v>0</v>
+      </c>
+      <c r="V35" s="7">
+        <v>0</v>
+      </c>
+      <c r="W35" s="7">
+        <v>0</v>
+      </c>
+      <c r="X35" s="7">
+        <v>0</v>
+      </c>
+      <c r="Y35" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z35" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="2:102" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B36" s="7" t="s">
+        <v>542</v>
+      </c>
+      <c r="K36" s="7">
+        <v>-118.851</v>
+      </c>
+      <c r="L36" s="7">
+        <v>-198.81</v>
+      </c>
+      <c r="M36" s="7">
+        <v>-471.25900000000001</v>
+      </c>
+      <c r="N36" s="7">
+        <v>-663</v>
+      </c>
+      <c r="O36" s="7">
+        <v>-685</v>
+      </c>
+      <c r="P36" s="7">
+        <v>-748</v>
+      </c>
+      <c r="Q36" s="7">
+        <v>-371</v>
+      </c>
+      <c r="R36" s="7">
+        <v>-191</v>
+      </c>
+      <c r="S36" s="7">
+        <v>-156</v>
+      </c>
+      <c r="T36" s="7">
+        <v>0</v>
+      </c>
+      <c r="U36" s="7">
+        <v>0</v>
+      </c>
+      <c r="V36" s="7">
+        <v>0</v>
+      </c>
+      <c r="W36" s="7">
+        <v>0</v>
+      </c>
+      <c r="X36" s="7">
+        <v>0</v>
+      </c>
+      <c r="Y36" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z36" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:102" s="22" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B37" s="22" t="s">
+        <v>1274</v>
+      </c>
+      <c r="K37" s="22">
+        <v>-41.652000000000001</v>
+      </c>
+      <c r="L37" s="22">
+        <v>111.27200000000001</v>
+      </c>
+      <c r="M37" s="22">
+        <v>-125.373</v>
+      </c>
+      <c r="N37" s="22">
+        <v>22</v>
+      </c>
+      <c r="O37" s="22">
+        <v>45</v>
+      </c>
+      <c r="P37" s="22">
+        <v>-122</v>
+      </c>
+      <c r="Q37" s="22">
+        <v>135</v>
+      </c>
+      <c r="R37" s="22">
+        <v>-43</v>
+      </c>
+      <c r="S37" s="22">
+        <v>172</v>
+      </c>
+      <c r="T37" s="22">
+        <v>0</v>
+      </c>
+      <c r="U37" s="22">
+        <v>0</v>
+      </c>
+      <c r="V37" s="22">
+        <v>0</v>
+      </c>
+      <c r="W37" s="22">
+        <v>0</v>
+      </c>
+      <c r="X37" s="22">
+        <v>0</v>
+      </c>
+      <c r="Y37" s="22">
+        <v>0</v>
+      </c>
+      <c r="Z37" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="2:102" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B38" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="G38" s="7">
+        <f>G34+SUM(G35:G37)</f>
+        <v>0</v>
+      </c>
+      <c r="H38" s="7">
+        <f t="shared" ref="H38:R38" si="15">H34+SUM(H35:H37)</f>
+        <v>0</v>
+      </c>
+      <c r="I38" s="7">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="J38" s="7">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="K38" s="7">
+        <f t="shared" si="15"/>
+        <v>-875.62399999999991</v>
+      </c>
+      <c r="L38" s="7">
+        <f t="shared" si="15"/>
+        <v>-746.34800000000064</v>
+      </c>
+      <c r="M38" s="7">
+        <f t="shared" si="15"/>
+        <v>-2208.5319999999992</v>
+      </c>
+      <c r="N38" s="7">
+        <f t="shared" si="15"/>
+        <v>-1005</v>
+      </c>
+      <c r="O38" s="7">
+        <f t="shared" si="15"/>
+        <v>-665</v>
+      </c>
+      <c r="P38" s="7">
+        <f t="shared" si="15"/>
+        <v>1154</v>
+      </c>
+      <c r="Q38" s="7">
+        <f t="shared" si="15"/>
+        <v>6343</v>
+      </c>
+      <c r="R38" s="7">
+        <f t="shared" si="15"/>
+        <v>13719</v>
+      </c>
+      <c r="S38" s="7">
+        <f>S34+SUM(S35:S37)</f>
+        <v>9973</v>
+      </c>
+      <c r="T38" s="7">
+        <f t="shared" ref="T38:Z38" si="16">T34+SUM(T35:T37)</f>
+        <v>1451.5950000000012</v>
+      </c>
+      <c r="U38" s="7">
+        <f t="shared" si="16"/>
+        <v>2177.3925000000017</v>
+      </c>
+      <c r="V38" s="7">
+        <f t="shared" si="16"/>
+        <v>3266.0887500000026</v>
+      </c>
+      <c r="W38" s="7">
+        <f t="shared" si="16"/>
+        <v>29394.798750000002</v>
+      </c>
+      <c r="X38" s="7">
+        <f t="shared" si="16"/>
+        <v>44092.198124999995</v>
+      </c>
+      <c r="Y38" s="7">
+        <f t="shared" si="16"/>
+        <v>66138.297187499993</v>
+      </c>
+      <c r="Z38" s="7">
+        <f t="shared" si="16"/>
+        <v>99207.445781250019</v>
+      </c>
+    </row>
+    <row r="39" spans="2:102" s="22" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B39" s="22" t="s">
+        <v>1275</v>
+      </c>
+      <c r="K39" s="22">
+        <v>13.039</v>
+      </c>
+      <c r="L39" s="22">
+        <v>26.698</v>
+      </c>
+      <c r="M39" s="22">
+        <v>31.545999999999999</v>
+      </c>
+      <c r="N39" s="22">
+        <v>58</v>
+      </c>
+      <c r="O39" s="22">
+        <v>110</v>
+      </c>
+      <c r="P39" s="22">
+        <v>292</v>
+      </c>
+      <c r="Q39" s="22">
+        <v>699</v>
+      </c>
+      <c r="R39" s="22">
+        <v>1132</v>
+      </c>
+      <c r="S39" s="22">
+        <v>-5001</v>
+      </c>
+      <c r="T39" s="22">
+        <f>T38*T58</f>
+        <v>-58.06380000000005</v>
+      </c>
+      <c r="U39" s="22">
+        <f t="shared" ref="U39:Z39" si="17">U38*U58</f>
+        <v>-87.095700000000065</v>
+      </c>
+      <c r="V39" s="22">
+        <f t="shared" si="17"/>
+        <v>-130.64355000000012</v>
+      </c>
+      <c r="W39" s="22">
+        <f t="shared" si="17"/>
+        <v>-1175.79195</v>
+      </c>
+      <c r="X39" s="22">
+        <f t="shared" si="17"/>
+        <v>-1763.687925</v>
+      </c>
+      <c r="Y39" s="22">
+        <f t="shared" si="17"/>
+        <v>-2645.5318874999998</v>
+      </c>
+      <c r="Z39" s="22">
+        <f t="shared" si="17"/>
+        <v>-3968.2978312500009</v>
+      </c>
+    </row>
+    <row r="40" spans="2:102" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B40" s="7" t="s">
+        <v>1276</v>
+      </c>
+      <c r="G40" s="7">
+        <f>G38-G39</f>
+        <v>0</v>
+      </c>
+      <c r="H40" s="7">
+        <f t="shared" ref="H40:R40" si="18">H38-H39</f>
+        <v>0</v>
+      </c>
+      <c r="I40" s="7">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="J40" s="7">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="K40" s="7">
+        <f t="shared" si="18"/>
+        <v>-888.6629999999999</v>
+      </c>
+      <c r="L40" s="7">
+        <f t="shared" si="18"/>
+        <v>-773.04600000000062</v>
+      </c>
+      <c r="M40" s="7">
+        <f t="shared" si="18"/>
+        <v>-2240.0779999999991</v>
+      </c>
+      <c r="N40" s="7">
+        <f t="shared" si="18"/>
+        <v>-1063</v>
+      </c>
+      <c r="O40" s="7">
+        <f t="shared" si="18"/>
+        <v>-775</v>
+      </c>
+      <c r="P40" s="7">
+        <f t="shared" si="18"/>
+        <v>862</v>
+      </c>
+      <c r="Q40" s="7">
+        <f t="shared" si="18"/>
+        <v>5644</v>
+      </c>
+      <c r="R40" s="7">
+        <f t="shared" si="18"/>
+        <v>12587</v>
+      </c>
+      <c r="S40" s="7">
+        <f>S38-S39</f>
+        <v>14974</v>
+      </c>
+      <c r="T40" s="7">
+        <f t="shared" ref="T40:Z40" si="19">T38-T39</f>
+        <v>1509.6588000000013</v>
+      </c>
+      <c r="U40" s="7">
+        <f t="shared" si="19"/>
+        <v>2264.4882000000016</v>
+      </c>
+      <c r="V40" s="7">
+        <f t="shared" si="19"/>
+        <v>3396.7323000000029</v>
+      </c>
+      <c r="W40" s="7">
+        <f t="shared" si="19"/>
+        <v>30570.590700000001</v>
+      </c>
+      <c r="X40" s="7">
+        <f t="shared" si="19"/>
+        <v>45855.886049999994</v>
+      </c>
+      <c r="Y40" s="7">
+        <f t="shared" si="19"/>
+        <v>68783.829074999987</v>
+      </c>
+      <c r="Z40" s="7">
+        <f t="shared" si="19"/>
+        <v>103175.74361250002</v>
+      </c>
+    </row>
+    <row r="41" spans="2:102" s="22" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B41" s="22" t="s">
+        <v>1277</v>
+      </c>
+      <c r="K41" s="22">
+        <v>0</v>
+      </c>
+      <c r="L41" s="22">
+        <v>-98.132000000000005</v>
+      </c>
+      <c r="M41" s="22">
+        <v>-279.178</v>
+      </c>
+      <c r="N41" s="22">
+        <v>-87</v>
+      </c>
+      <c r="O41" s="22">
+        <v>87</v>
+      </c>
+      <c r="P41" s="22">
+        <v>141</v>
+      </c>
+      <c r="Q41" s="22">
+        <v>125</v>
+      </c>
+      <c r="R41" s="22">
+        <v>31</v>
+      </c>
+      <c r="S41" s="22">
+        <v>-23</v>
+      </c>
+      <c r="T41" s="22">
+        <v>0</v>
+      </c>
+      <c r="U41" s="22">
+        <v>0</v>
+      </c>
+      <c r="V41" s="22">
+        <v>0</v>
+      </c>
+      <c r="W41" s="22">
+        <v>0</v>
+      </c>
+      <c r="X41" s="22">
+        <v>0</v>
+      </c>
+      <c r="Y41" s="22">
+        <v>0</v>
+      </c>
+      <c r="Z41" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:102" x14ac:dyDescent="0.35">
+      <c r="B42" s="7" t="s">
+        <v>1278</v>
+      </c>
+      <c r="G42" s="7">
+        <f>G40-G41</f>
+        <v>0</v>
+      </c>
+      <c r="H42" s="7">
+        <f t="shared" ref="H42:R42" si="20">H40-H41</f>
+        <v>0</v>
+      </c>
+      <c r="I42" s="7">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="J42" s="7">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="K42" s="7">
+        <f t="shared" si="20"/>
+        <v>-888.6629999999999</v>
+      </c>
+      <c r="L42" s="7">
+        <f t="shared" si="20"/>
+        <v>-674.91400000000067</v>
+      </c>
+      <c r="M42" s="7">
+        <f t="shared" si="20"/>
+        <v>-1960.8999999999992</v>
+      </c>
+      <c r="N42" s="7">
+        <f t="shared" si="20"/>
+        <v>-976</v>
+      </c>
+      <c r="O42" s="7">
+        <f t="shared" si="20"/>
+        <v>-862</v>
+      </c>
+      <c r="P42" s="7">
+        <f t="shared" si="20"/>
+        <v>721</v>
+      </c>
+      <c r="Q42" s="7">
+        <f t="shared" si="20"/>
+        <v>5519</v>
+      </c>
+      <c r="R42" s="7">
+        <f t="shared" si="20"/>
+        <v>12556</v>
+      </c>
+      <c r="S42" s="7">
+        <f>S40-S41</f>
+        <v>14997</v>
+      </c>
+      <c r="T42" s="7">
+        <f t="shared" ref="T42:Z42" si="21">T40-T41</f>
+        <v>1509.6588000000013</v>
+      </c>
+      <c r="U42" s="7">
+        <f t="shared" si="21"/>
+        <v>2264.4882000000016</v>
+      </c>
+      <c r="V42" s="7">
+        <f t="shared" si="21"/>
+        <v>3396.7323000000029</v>
+      </c>
+      <c r="W42" s="7">
+        <f t="shared" si="21"/>
+        <v>30570.590700000001</v>
+      </c>
+      <c r="X42" s="7">
+        <f t="shared" si="21"/>
+        <v>45855.886049999994</v>
+      </c>
+      <c r="Y42" s="7">
+        <f t="shared" si="21"/>
+        <v>68783.829074999987</v>
+      </c>
+      <c r="Z42" s="7">
+        <f t="shared" si="21"/>
+        <v>103175.74361250002</v>
+      </c>
+      <c r="AA42" s="7">
+        <f>Z42*(1+$AE$64)</f>
+        <v>104207.50104862502</v>
+      </c>
+      <c r="AB42" s="7">
+        <f t="shared" ref="AB42:CM42" si="22">AA42*(1+$AE$64)</f>
+        <v>105249.57605911128</v>
+      </c>
+      <c r="AC42" s="7">
+        <f t="shared" si="22"/>
+        <v>106302.0718197024</v>
+      </c>
+      <c r="AD42" s="7">
+        <f t="shared" si="22"/>
+        <v>107365.09253789941</v>
+      </c>
+      <c r="AE42" s="7">
+        <f t="shared" si="22"/>
+        <v>108438.74346327841</v>
+      </c>
+      <c r="AF42" s="7">
+        <f t="shared" si="22"/>
+        <v>109523.13089791119</v>
+      </c>
+      <c r="AG42" s="7">
+        <f t="shared" si="22"/>
+        <v>110618.36220689031</v>
+      </c>
+      <c r="AH42" s="7">
+        <f t="shared" si="22"/>
+        <v>111724.54582895921</v>
+      </c>
+      <c r="AI42" s="7">
+        <f t="shared" si="22"/>
+        <v>112841.79128724879</v>
+      </c>
+      <c r="AJ42" s="7">
+        <f t="shared" si="22"/>
+        <v>113970.20920012129</v>
+      </c>
+      <c r="AK42" s="7">
+        <f t="shared" si="22"/>
+        <v>115109.9112921225</v>
+      </c>
+      <c r="AL42" s="7">
+        <f t="shared" si="22"/>
+        <v>116261.01040504372</v>
+      </c>
+      <c r="AM42" s="7">
+        <f t="shared" si="22"/>
+        <v>117423.62050909417</v>
+      </c>
+      <c r="AN42" s="7">
+        <f t="shared" si="22"/>
+        <v>118597.85671418511</v>
+      </c>
+      <c r="AO42" s="7">
+        <f t="shared" si="22"/>
+        <v>119783.83528132696</v>
+      </c>
+      <c r="AP42" s="7">
+        <f t="shared" si="22"/>
+        <v>120981.67363414023</v>
+      </c>
+      <c r="AQ42" s="7">
+        <f t="shared" si="22"/>
+        <v>122191.49037048164</v>
+      </c>
+      <c r="AR42" s="7">
+        <f t="shared" si="22"/>
+        <v>123413.40527418646</v>
+      </c>
+      <c r="AS42" s="7">
+        <f t="shared" si="22"/>
+        <v>124647.53932692832</v>
+      </c>
+      <c r="AT42" s="7">
+        <f t="shared" si="22"/>
+        <v>125894.01472019761</v>
+      </c>
+      <c r="AU42" s="7">
+        <f t="shared" si="22"/>
+        <v>127152.95486739959</v>
+      </c>
+      <c r="AV42" s="7">
+        <f t="shared" si="22"/>
+        <v>128424.48441607358</v>
+      </c>
+      <c r="AW42" s="7">
+        <f t="shared" si="22"/>
+        <v>129708.72926023432</v>
+      </c>
+      <c r="AX42" s="7">
+        <f t="shared" si="22"/>
+        <v>131005.81655283667</v>
+      </c>
+      <c r="AY42" s="7">
+        <f t="shared" si="22"/>
+        <v>132315.87471836503</v>
+      </c>
+      <c r="AZ42" s="7">
+        <f t="shared" si="22"/>
+        <v>133639.03346554868</v>
+      </c>
+      <c r="BA42" s="7">
+        <f t="shared" si="22"/>
+        <v>134975.42380020418</v>
+      </c>
+      <c r="BB42" s="7">
+        <f t="shared" si="22"/>
+        <v>136325.17803820621</v>
+      </c>
+      <c r="BC42" s="7">
+        <f t="shared" si="22"/>
+        <v>137688.42981858828</v>
+      </c>
+      <c r="BD42" s="7">
+        <f t="shared" si="22"/>
+        <v>139065.31411677416</v>
+      </c>
+      <c r="BE42" s="7">
+        <f t="shared" si="22"/>
+        <v>140455.9672579419</v>
+      </c>
+      <c r="BF42" s="7">
+        <f t="shared" si="22"/>
+        <v>141860.52693052133</v>
+      </c>
+      <c r="BG42" s="7">
+        <f t="shared" si="22"/>
+        <v>143279.13219982653</v>
+      </c>
+      <c r="BH42" s="7">
+        <f t="shared" si="22"/>
+        <v>144711.92352182479</v>
+      </c>
+      <c r="BI42" s="7">
+        <f t="shared" si="22"/>
+        <v>146159.04275704303</v>
+      </c>
+      <c r="BJ42" s="7">
+        <f t="shared" si="22"/>
+        <v>147620.63318461346</v>
+      </c>
+      <c r="BK42" s="7">
+        <f t="shared" si="22"/>
+        <v>149096.83951645959</v>
+      </c>
+      <c r="BL42" s="7">
+        <f t="shared" si="22"/>
+        <v>150587.80791162417</v>
+      </c>
+      <c r="BM42" s="7">
+        <f t="shared" si="22"/>
+        <v>152093.68599074043</v>
+      </c>
+      <c r="BN42" s="7">
+        <f t="shared" si="22"/>
+        <v>153614.62285064784</v>
+      </c>
+      <c r="BO42" s="7">
+        <f t="shared" si="22"/>
+        <v>155150.76907915433</v>
+      </c>
+      <c r="BP42" s="7">
+        <f t="shared" si="22"/>
+        <v>156702.27676994586</v>
+      </c>
+      <c r="BQ42" s="7">
+        <f t="shared" si="22"/>
+        <v>158269.29953764533</v>
+      </c>
+      <c r="BR42" s="7">
+        <f t="shared" si="22"/>
+        <v>159851.99253302178</v>
+      </c>
+      <c r="BS42" s="7">
+        <f t="shared" si="22"/>
+        <v>161450.51245835199</v>
+      </c>
+      <c r="BT42" s="7">
+        <f t="shared" si="22"/>
+        <v>163065.01758293551</v>
+      </c>
+      <c r="BU42" s="7">
+        <f t="shared" si="22"/>
+        <v>164695.66775876487</v>
+      </c>
+      <c r="BV42" s="7">
+        <f t="shared" si="22"/>
+        <v>166342.62443635252</v>
+      </c>
+      <c r="BW42" s="7">
+        <f t="shared" si="22"/>
+        <v>168006.05068071606</v>
+      </c>
+      <c r="BX42" s="7">
+        <f t="shared" si="22"/>
+        <v>169686.11118752323</v>
+      </c>
+      <c r="BY42" s="7">
+        <f t="shared" si="22"/>
+        <v>171382.97229939848</v>
+      </c>
+      <c r="BZ42" s="7">
+        <f t="shared" si="22"/>
+        <v>173096.80202239245</v>
+      </c>
+      <c r="CA42" s="7">
+        <f t="shared" si="22"/>
+        <v>174827.77004261638</v>
+      </c>
+      <c r="CB42" s="7">
+        <f t="shared" si="22"/>
+        <v>176576.04774304255</v>
+      </c>
+      <c r="CC42" s="7">
+        <f t="shared" si="22"/>
+        <v>178341.80822047297</v>
+      </c>
+      <c r="CD42" s="7">
+        <f t="shared" si="22"/>
+        <v>180125.22630267771</v>
+      </c>
+      <c r="CE42" s="7">
+        <f t="shared" si="22"/>
+        <v>181926.47856570448</v>
+      </c>
+      <c r="CF42" s="7">
+        <f t="shared" si="22"/>
+        <v>183745.74335136154</v>
+      </c>
+      <c r="CG42" s="7">
+        <f t="shared" si="22"/>
+        <v>185583.20078487517</v>
+      </c>
+      <c r="CH42" s="7">
+        <f t="shared" si="22"/>
+        <v>187439.03279272391</v>
+      </c>
+      <c r="CI42" s="7">
+        <f t="shared" si="22"/>
+        <v>189313.42312065116</v>
+      </c>
+      <c r="CJ42" s="7">
+        <f t="shared" si="22"/>
+        <v>191206.55735185769</v>
+      </c>
+      <c r="CK42" s="7">
+        <f t="shared" si="22"/>
+        <v>193118.62292537626</v>
+      </c>
+      <c r="CL42" s="7">
+        <f t="shared" si="22"/>
+        <v>195049.80915463003</v>
+      </c>
+      <c r="CM42" s="7">
+        <f t="shared" si="22"/>
+        <v>197000.30724617632</v>
+      </c>
+      <c r="CN42" s="7">
+        <f t="shared" ref="CN42:CX42" si="23">CM42*(1+$AE$64)</f>
+        <v>198970.31031863808</v>
+      </c>
+      <c r="CO42" s="7">
+        <f t="shared" si="23"/>
+        <v>200960.01342182446</v>
+      </c>
+      <c r="CP42" s="7">
+        <f t="shared" si="23"/>
+        <v>202969.61355604272</v>
+      </c>
+      <c r="CQ42" s="7">
+        <f t="shared" si="23"/>
+        <v>204999.30969160315</v>
+      </c>
+      <c r="CR42" s="7">
+        <f t="shared" si="23"/>
+        <v>207049.30278851918</v>
+      </c>
+      <c r="CS42" s="7">
+        <f t="shared" si="23"/>
+        <v>209119.79581640437</v>
+      </c>
+      <c r="CT42" s="7">
+        <f t="shared" si="23"/>
+        <v>211210.9937745684</v>
+      </c>
+      <c r="CU42" s="7">
+        <f t="shared" si="23"/>
+        <v>213323.1037123141</v>
+      </c>
+      <c r="CV42" s="7">
+        <f t="shared" si="23"/>
+        <v>215456.33474943723</v>
+      </c>
+      <c r="CW42" s="7">
+        <f t="shared" si="23"/>
+        <v>217610.8980969316</v>
+      </c>
+      <c r="CX42" s="7">
+        <f t="shared" si="23"/>
+        <v>219787.00707790093</v>
+      </c>
+    </row>
+    <row r="44" spans="2:102" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B44" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="G44" s="15" t="e">
+        <f>G42/G46</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H44" s="15" t="e">
+        <f t="shared" ref="H44:S44" si="24">H42/H46</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I44" s="15" t="e">
+        <f t="shared" si="24"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J44" s="15" t="e">
+        <f t="shared" si="24"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K44" s="15">
+        <f t="shared" si="24"/>
+        <v>-0.46211603563126935</v>
+      </c>
+      <c r="L44" s="15">
+        <f t="shared" si="24"/>
+        <v>-0.3120008505995806</v>
+      </c>
+      <c r="M44" s="15">
+        <f t="shared" si="24"/>
+        <v>-0.78865977308284729</v>
+      </c>
+      <c r="N44" s="15">
+        <f t="shared" si="24"/>
+        <v>-0.38139898397811645</v>
+      </c>
+      <c r="O44" s="15">
+        <f t="shared" si="24"/>
+        <v>-0.32393836903419765</v>
+      </c>
+      <c r="P44" s="15">
+        <f t="shared" si="24"/>
+        <v>0.25759199714183639</v>
+      </c>
+      <c r="Q44" s="15">
+        <f t="shared" si="24"/>
+        <v>1.8651571476850288</v>
+      </c>
+      <c r="R44" s="15">
+        <f t="shared" si="24"/>
+        <v>4.0115015974440897</v>
+      </c>
+      <c r="S44" s="15">
+        <f t="shared" si="24"/>
+        <v>4.7249527410207941</v>
+      </c>
+    </row>
+    <row r="45" spans="2:102" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B45" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="G45" s="15" t="e">
+        <f>G42/G47</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H45" s="15" t="e">
+        <f t="shared" ref="H45:S45" si="25">H42/H47</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I45" s="15" t="e">
+        <f t="shared" si="25"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J45" s="15" t="e">
+        <f t="shared" si="25"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K45" s="15">
+        <f t="shared" si="25"/>
+        <v>-0.46211603563126935</v>
+      </c>
+      <c r="L45" s="15">
+        <f t="shared" si="25"/>
+        <v>-0.3120008505995806</v>
+      </c>
+      <c r="M45" s="15">
+        <f t="shared" si="25"/>
+        <v>-0.78865977308284729</v>
+      </c>
+      <c r="N45" s="15">
+        <f t="shared" si="25"/>
+        <v>-0.38139898397811645</v>
+      </c>
+      <c r="O45" s="15">
+        <f t="shared" si="25"/>
+        <v>-0.32393836903419765</v>
+      </c>
+      <c r="P45" s="15">
+        <f t="shared" si="25"/>
+        <v>0.22191443521083409</v>
+      </c>
+      <c r="Q45" s="15">
+        <f t="shared" si="25"/>
+        <v>1.6299468399291199</v>
+      </c>
+      <c r="R45" s="15">
+        <f t="shared" si="25"/>
+        <v>3.6132374100719424</v>
+      </c>
+      <c r="S45" s="15">
+        <f t="shared" si="25"/>
+        <v>4.3032998565279774</v>
+      </c>
+    </row>
+    <row r="46" spans="2:102" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B46" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="K46" s="7">
+        <f>K48*3</f>
+        <v>1923.03</v>
+      </c>
+      <c r="L46" s="7">
+        <f>L48*3</f>
+        <v>2163.1799999999998</v>
+      </c>
+      <c r="M46" s="7">
+        <f>M48*3</f>
+        <v>2486.3700000000003</v>
+      </c>
+      <c r="N46" s="7">
+        <f>N48*3</f>
+        <v>2559</v>
+      </c>
+      <c r="O46" s="7">
+        <f>O48*3</f>
+        <v>2661</v>
+      </c>
+      <c r="P46" s="7">
+        <f>P48*3</f>
+        <v>2799</v>
+      </c>
+      <c r="Q46" s="7">
+        <v>2959</v>
+      </c>
+      <c r="R46" s="7">
+        <v>3130</v>
+      </c>
+      <c r="S46" s="7">
+        <v>3174</v>
+      </c>
+    </row>
+    <row r="47" spans="2:102" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B47" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="K47" s="7">
+        <f>K49*3</f>
+        <v>1923.03</v>
+      </c>
+      <c r="L47" s="7">
+        <f>L49*3</f>
+        <v>2163.1799999999998</v>
+      </c>
+      <c r="M47" s="7">
+        <f>M49*3</f>
+        <v>2486.3700000000003</v>
+      </c>
+      <c r="N47" s="7">
+        <f>N49*3</f>
+        <v>2559</v>
+      </c>
+      <c r="O47" s="7">
+        <f>O49*3</f>
+        <v>2661</v>
+      </c>
+      <c r="P47" s="7">
+        <f>P49*3</f>
+        <v>3249</v>
+      </c>
+      <c r="Q47" s="7">
+        <v>3386</v>
+      </c>
+      <c r="R47" s="7">
+        <v>3475</v>
+      </c>
+      <c r="S47" s="7">
+        <v>3485</v>
+      </c>
+    </row>
+    <row r="48" spans="2:102" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="K48" s="7">
+        <f>K50*5</f>
+        <v>641.01</v>
+      </c>
+      <c r="L48" s="7">
+        <f>L50*5</f>
+        <v>721.06</v>
+      </c>
+      <c r="M48" s="7">
+        <f>M50*5</f>
+        <v>828.79000000000008</v>
+      </c>
+      <c r="N48" s="7">
+        <v>853</v>
+      </c>
+      <c r="O48" s="7">
+        <v>887</v>
+      </c>
+      <c r="P48" s="7">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="49" spans="2:35" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="K49" s="7">
+        <f>K51*5</f>
+        <v>641.01</v>
+      </c>
+      <c r="L49" s="7">
+        <f>L51*5</f>
+        <v>721.06</v>
+      </c>
+      <c r="M49" s="7">
+        <f>M51*5</f>
+        <v>828.79000000000008</v>
+      </c>
+      <c r="N49" s="7">
+        <v>853</v>
+      </c>
+      <c r="O49" s="7">
+        <v>887</v>
+      </c>
+      <c r="P49" s="7">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="50" spans="2:35" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="K50" s="7">
+        <v>128.202</v>
+      </c>
+      <c r="L50" s="7">
+        <v>144.21199999999999</v>
+      </c>
+      <c r="M50" s="7">
+        <v>165.75800000000001</v>
+      </c>
+    </row>
+    <row r="51" spans="2:35" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="K51" s="7">
+        <v>128.202</v>
+      </c>
+      <c r="L51" s="7">
+        <v>144.21199999999999</v>
+      </c>
+      <c r="M51" s="7">
+        <v>165.75800000000001</v>
+      </c>
+    </row>
+    <row r="53" spans="2:35" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B53" s="12" t="s">
+        <v>1284</v>
+      </c>
+    </row>
+    <row r="54" spans="2:35" s="66" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B54" s="66" t="s">
+        <v>21</v>
+      </c>
+      <c r="G54" s="66" t="e">
+        <f>G27/F27-1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H54" s="66" t="e">
+        <f t="shared" ref="H54:R54" si="26">H27/G27-1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I54" s="66" t="e">
+        <f t="shared" si="26"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J54" s="66" t="e">
+        <f t="shared" si="26"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K54" s="66" t="e">
+        <f t="shared" si="26"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L54" s="66">
+        <f t="shared" si="26"/>
+        <v>0.73012574069611524</v>
+      </c>
+      <c r="M54" s="66">
+        <f t="shared" si="26"/>
+        <v>0.67978989539054413</v>
+      </c>
+      <c r="N54" s="66">
+        <f t="shared" si="26"/>
+        <v>0.8251088061988896</v>
+      </c>
+      <c r="O54" s="66">
+        <f t="shared" si="26"/>
+        <v>0.14524020315921904</v>
+      </c>
+      <c r="P54" s="66">
+        <f t="shared" si="26"/>
+        <v>0.28309870615998056</v>
+      </c>
+      <c r="Q54" s="66">
+        <f t="shared" si="26"/>
+        <v>0.70671613394216126</v>
+      </c>
+      <c r="R54" s="66">
+        <f t="shared" si="26"/>
+        <v>0.51351652639206291</v>
+      </c>
+      <c r="S54" s="66">
+        <f>S27/R27-1</f>
+        <v>0.18795266504627928</v>
+      </c>
+      <c r="T54" s="66">
+        <v>0.5</v>
+      </c>
+      <c r="U54" s="66">
+        <v>0.5</v>
+      </c>
+      <c r="V54" s="66">
+        <v>0.5</v>
+      </c>
+      <c r="W54" s="66">
+        <v>0.5</v>
+      </c>
+      <c r="X54" s="66">
+        <v>0.5</v>
+      </c>
+      <c r="Y54" s="66">
+        <v>0.5</v>
+      </c>
+      <c r="Z54" s="66">
+        <v>0.5</v>
+      </c>
+      <c r="AA54" s="66">
+        <v>0.5</v>
+      </c>
+      <c r="AB54" s="66">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="55" spans="2:35" s="66" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="56" spans="2:35" s="67" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B56" s="67" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="57" spans="2:35" s="66" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B57" s="66" t="s">
+        <v>1286</v>
+      </c>
+      <c r="G57" s="66" t="e">
+        <f>G29/G27</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H57" s="66" t="e">
+        <f t="shared" ref="H57:R57" si="27">H29/H27</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I57" s="66" t="e">
+        <f t="shared" si="27"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J57" s="66" t="e">
+        <f t="shared" si="27"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K57" s="66">
+        <f t="shared" si="27"/>
+        <v>0.22824945471172328</v>
+      </c>
+      <c r="L57" s="66">
+        <f t="shared" si="27"/>
+        <v>0.22846097759299391</v>
+      </c>
+      <c r="M57" s="66">
+        <f t="shared" si="27"/>
+        <v>0.18900706376042839</v>
+      </c>
+      <c r="N57" s="66">
+        <f t="shared" si="27"/>
+        <v>0.18834164298028983</v>
+      </c>
+      <c r="O57" s="66">
+        <f t="shared" si="27"/>
+        <v>0.1655545609895028</v>
+      </c>
+      <c r="P57" s="66">
+        <f t="shared" si="27"/>
+        <v>0.2102359208523592</v>
+      </c>
+      <c r="Q57" s="66">
+        <f t="shared" si="27"/>
+        <v>0.25279155751258753</v>
+      </c>
+      <c r="R57" s="66">
+        <f t="shared" si="27"/>
+        <v>0.25598438535759005</v>
+      </c>
+      <c r="S57" s="66">
+        <f>S29/S27</f>
+        <v>0.18248891736331416</v>
+      </c>
+      <c r="T57" s="66">
+        <v>0.2</v>
+      </c>
+      <c r="U57" s="66">
+        <v>0.2</v>
+      </c>
+      <c r="V57" s="66">
+        <v>0.2</v>
+      </c>
+      <c r="W57" s="66">
+        <v>0.25</v>
+      </c>
+      <c r="X57" s="66">
+        <v>0.25</v>
+      </c>
+      <c r="Y57" s="66">
+        <v>0.25</v>
+      </c>
+      <c r="Z57" s="66">
+        <v>0.25</v>
+      </c>
+      <c r="AA57" s="66">
+        <v>0.25</v>
+      </c>
+      <c r="AB57" s="66">
+        <v>0.25</v>
+      </c>
+      <c r="AF57" s="66" t="s">
+        <v>1293</v>
+      </c>
+    </row>
+    <row r="58" spans="2:35" s="66" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B58" s="66" t="s">
+        <v>1287</v>
+      </c>
+      <c r="G58" s="66" t="e">
+        <f>G39/G38</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H58" s="66" t="e">
+        <f t="shared" ref="H58:R58" si="28">H39/H38</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I58" s="66" t="e">
+        <f t="shared" si="28"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J58" s="66" t="e">
+        <f t="shared" si="28"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K58" s="66">
+        <f t="shared" si="28"/>
+        <v>-1.4891094807817055E-2</v>
+      </c>
+      <c r="L58" s="66">
+        <f t="shared" si="28"/>
+        <v>-3.5771516772336732E-2</v>
+      </c>
+      <c r="M58" s="66">
+        <f t="shared" si="28"/>
+        <v>-1.4283696138430418E-2</v>
+      </c>
+      <c r="N58" s="66">
+        <f t="shared" si="28"/>
+        <v>-5.7711442786069649E-2</v>
+      </c>
+      <c r="O58" s="66">
+        <f t="shared" si="28"/>
+        <v>-0.16541353383458646</v>
+      </c>
+      <c r="P58" s="66">
+        <f t="shared" si="28"/>
+        <v>0.2530329289428076</v>
+      </c>
+      <c r="Q58" s="66">
+        <f t="shared" si="28"/>
+        <v>0.11020022071574964</v>
+      </c>
+      <c r="R58" s="66">
+        <f t="shared" si="28"/>
+        <v>8.2513302718857054E-2</v>
+      </c>
+      <c r="S58" s="66">
+        <f>S39/S38</f>
+        <v>-0.50145392559911761</v>
+      </c>
+      <c r="T58" s="66">
+        <v>-0.04</v>
+      </c>
+      <c r="U58" s="66">
+        <v>-0.04</v>
+      </c>
+      <c r="V58" s="66">
+        <v>-0.04</v>
+      </c>
+      <c r="W58" s="66">
+        <v>-0.04</v>
+      </c>
+      <c r="X58" s="66">
+        <v>-0.04</v>
+      </c>
+      <c r="Y58" s="66">
+        <v>-0.04</v>
+      </c>
+      <c r="Z58" s="66">
+        <v>-0.04</v>
+      </c>
+      <c r="AA58" s="66">
+        <v>-0.04</v>
+      </c>
+      <c r="AB58" s="66">
+        <v>-0.04</v>
+      </c>
+    </row>
+    <row r="59" spans="2:35" s="67" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B59" s="67" t="s">
+        <v>1285</v>
+      </c>
+    </row>
+    <row r="60" spans="2:35" s="66" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B60" s="66" t="s">
+        <v>33</v>
+      </c>
+      <c r="G60" s="66" t="e">
+        <f>G30/G27</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H60" s="66" t="e">
+        <f t="shared" ref="H60:R60" si="29">H30/H27</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I60" s="66" t="e">
+        <f t="shared" si="29"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J60" s="66" t="e">
+        <f t="shared" si="29"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K60" s="66">
+        <f t="shared" si="29"/>
+        <v>0.17743340686229075</v>
+      </c>
+      <c r="L60" s="66">
+        <f t="shared" si="29"/>
+        <v>0.11919889510654944</v>
+      </c>
+      <c r="M60" s="66">
+        <f t="shared" si="29"/>
+        <v>0.11719552527304984</v>
+      </c>
+      <c r="N60" s="66">
+        <f t="shared" si="29"/>
+        <v>6.8030380690554962E-2</v>
+      </c>
+      <c r="O60" s="66">
+        <f t="shared" si="29"/>
+        <v>5.4642363088941333E-2</v>
+      </c>
+      <c r="P60" s="66">
+        <f t="shared" si="29"/>
+        <v>4.7279299847792999E-2</v>
+      </c>
+      <c r="Q60" s="66">
+        <f t="shared" si="29"/>
+        <v>4.817643015067908E-2</v>
+      </c>
+      <c r="R60" s="66">
+        <f t="shared" si="29"/>
+        <v>3.7747661486337188E-2</v>
+      </c>
+      <c r="S60" s="66">
+        <f>S30/S27</f>
+        <v>4.1013505833238609E-2</v>
+      </c>
+      <c r="T60" s="66">
+        <v>0.06</v>
+      </c>
+      <c r="U60" s="66">
+        <v>0.06</v>
+      </c>
+      <c r="V60" s="66">
+        <v>0.06</v>
+      </c>
+      <c r="W60" s="66">
+        <v>0.06</v>
+      </c>
+      <c r="X60" s="66">
+        <v>0.06</v>
+      </c>
+      <c r="Y60" s="66">
+        <v>0.06</v>
+      </c>
+      <c r="Z60" s="66">
+        <v>0.06</v>
+      </c>
+      <c r="AA60" s="66">
+        <v>0.06</v>
+      </c>
+      <c r="AB60" s="66">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="61" spans="2:35" s="66" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B61" s="66" t="s">
+        <v>1272</v>
+      </c>
+      <c r="G61" s="66" t="e">
+        <f>G31/G27</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H61" s="66" t="e">
+        <f t="shared" ref="H61:R61" si="30">H31/H27</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I61" s="66" t="e">
+        <f t="shared" si="30"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J61" s="66" t="e">
+        <f t="shared" si="30"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K61" s="66">
+        <f t="shared" si="30"/>
+        <v>0.22793531923307442</v>
+      </c>
+      <c r="L61" s="66">
+        <f t="shared" si="30"/>
+        <v>0.20459457050238483</v>
+      </c>
+      <c r="M61" s="66">
+        <f t="shared" si="30"/>
+        <v>0.21056658143369139</v>
+      </c>
+      <c r="N61" s="66">
+        <f t="shared" si="30"/>
+        <v>0.1321000885326872</v>
+      </c>
+      <c r="O61" s="66">
+        <f t="shared" si="30"/>
+        <v>0.10765725445520384</v>
+      </c>
+      <c r="P61" s="66">
+        <f t="shared" si="30"/>
+        <v>9.9727295788939629E-2</v>
+      </c>
+      <c r="Q61" s="66">
+        <f t="shared" si="30"/>
+        <v>8.3923229845976624E-2</v>
+      </c>
+      <c r="R61" s="66">
+        <f t="shared" si="30"/>
+        <v>4.8439763325231394E-2</v>
+      </c>
+      <c r="S61" s="66">
+        <f>S31/S27</f>
+        <v>4.9600611740878139E-2</v>
+      </c>
+      <c r="T61" s="66">
+        <v>0.13</v>
+      </c>
+      <c r="U61" s="66">
+        <v>0.13</v>
+      </c>
+      <c r="V61" s="66">
+        <v>0.13</v>
+      </c>
+      <c r="W61" s="66">
+        <v>0.13</v>
+      </c>
+      <c r="X61" s="66">
+        <v>0.13</v>
+      </c>
+      <c r="Y61" s="66">
+        <v>0.13</v>
+      </c>
+      <c r="Z61" s="66">
+        <v>0.13</v>
+      </c>
+      <c r="AA61" s="66">
+        <v>0.13</v>
+      </c>
+      <c r="AB61" s="66">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="63" spans="2:35" x14ac:dyDescent="0.35">
+      <c r="AD63" s="12" t="e" vm="1">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AE63" s="12"/>
+      <c r="AF63" s="12"/>
+      <c r="AG63" s="12"/>
+      <c r="AH63" s="12"/>
+      <c r="AI63" s="12"/>
+    </row>
+    <row r="64" spans="2:35" x14ac:dyDescent="0.35">
+      <c r="AD64" s="12" t="s">
+        <v>1288</v>
+      </c>
+      <c r="AE64" s="66">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="65" spans="30:31" x14ac:dyDescent="0.35">
+      <c r="AD65" s="12" t="s">
+        <v>1289</v>
+      </c>
+      <c r="AE65" s="66">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="66" spans="30:31" x14ac:dyDescent="0.35">
+      <c r="AD66" s="12" t="s">
+        <v>1290</v>
+      </c>
+      <c r="AE66" s="69">
+        <f>NPV(AE65,AA42:CX42)</f>
+        <v>1156098.185702754</v>
+      </c>
+    </row>
+    <row r="67" spans="30:31" x14ac:dyDescent="0.35">
+      <c r="AD67" s="12" t="s">
+        <v>1291</v>
+      </c>
+      <c r="AE67" s="68">
+        <f>AE66/S46</f>
+        <v>364.24013412185064</v>
+      </c>
+    </row>
+    <row r="68" spans="30:31" x14ac:dyDescent="0.35">
+      <c r="AD68" s="12" t="s">
+        <v>1292</v>
+      </c>
+      <c r="AE68" s="6" cm="1">
+        <f t="array" ref="AE68">_FV(AD63,"Price")</f>
+        <v>219.8</v>
+      </c>
+    </row>
+    <row r="69" spans="30:31" x14ac:dyDescent="0.35">
+      <c r="AD69" s="12"/>
+    </row>
+    <row r="70" spans="30:31" x14ac:dyDescent="0.35">
+      <c r="AD70" s="12"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:R28"/>
   <sheetViews>
@@ -25224,7 +28410,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:P32"/>
   <sheetViews>
@@ -26754,7 +29940,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:P40"/>
   <sheetViews>
@@ -28764,7 +31950,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:P29"/>
   <sheetViews>
